--- a/imexcel.xlsx
+++ b/imexcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5755661C-E540-488D-A229-3A57C748DF2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A27D0E2-B122-4D4E-8521-DA6BAFC927D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="1830" windowWidth="17280" windowHeight="9102" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>npc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +395,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
